--- a/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.98776061964483</v>
+        <v>89.37499711762479</v>
       </c>
       <c r="D2" t="n">
-        <v>4.722582682797454</v>
+        <v>4.11679034457132</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.15034310307438</v>
+        <v>88.39271850637437</v>
       </c>
       <c r="D3" t="n">
-        <v>4.524250812432994</v>
+        <v>4.702271061091622</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.07857507643357</v>
+        <v>87.03703207029965</v>
       </c>
       <c r="D4" t="n">
-        <v>4.305836202724196</v>
+        <v>4.598401873684076</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.94146988770405</v>
+        <v>87.39561432825433</v>
       </c>
       <c r="D5" t="n">
-        <v>4.547875501964048</v>
+        <v>4.383539096332387</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.76187490155461</v>
+        <v>85.02195774268165</v>
       </c>
       <c r="D6" t="n">
-        <v>5.164282434980549</v>
+        <v>5.404929365845233</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.5913532707871</v>
+        <v>85.12162895494903</v>
       </c>
       <c r="D7" t="n">
-        <v>4.634664495411318</v>
+        <v>4.716487910328245</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.61149696885941</v>
+        <v>83.39024061824971</v>
       </c>
       <c r="D8" t="n">
-        <v>4.943504906515231</v>
+        <v>5.083425952213823</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.52838374259973</v>
+        <v>82.4712751523264</v>
       </c>
       <c r="D9" t="n">
-        <v>4.729994686048657</v>
+        <v>5.222226296697261</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.39309407606865</v>
+        <v>82.18528208021048</v>
       </c>
       <c r="D10" t="n">
-        <v>4.283567592887631</v>
+        <v>4.497879334740119</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.12360785258552</v>
+        <v>80.42892224864511</v>
       </c>
       <c r="D11" t="n">
-        <v>4.911313364862312</v>
+        <v>5.091145399396774</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.96997365909444</v>
+        <v>78.81741790747363</v>
       </c>
       <c r="D12" t="n">
-        <v>6.532586444545015</v>
+        <v>6.278165664282188</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.09390523457689</v>
+        <v>78.90508968149962</v>
       </c>
       <c r="D13" t="n">
-        <v>5.31060060840823</v>
+        <v>5.497885511770905</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.7784231921835</v>
+        <v>77.65139633782574</v>
       </c>
       <c r="D14" t="n">
-        <v>5.198893215895641</v>
+        <v>5.24048661781194</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.37015483757317</v>
+        <v>77.53017420109268</v>
       </c>
       <c r="D15" t="n">
-        <v>6.277176775313742</v>
+        <v>5.359613786054075</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.09276233715255</v>
+        <v>74.66603361946872</v>
       </c>
       <c r="D16" t="n">
-        <v>5.796700794351139</v>
+        <v>5.939355671547617</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.41937001468901</v>
+        <v>75.30039891622087</v>
       </c>
       <c r="D17" t="n">
-        <v>5.48923064791851</v>
+        <v>4.447630535663338</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.36003282221002</v>
+        <v>72.88971210271978</v>
       </c>
       <c r="D18" t="n">
-        <v>5.606059268825565</v>
+        <v>5.92563636873358</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.95088353882113</v>
+        <v>71.80982969723728</v>
       </c>
       <c r="D19" t="n">
-        <v>5.793165562598309</v>
+        <v>5.845453690043506</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.86452426943956</v>
+        <v>71.85976944950859</v>
       </c>
       <c r="D20" t="n">
-        <v>5.995891221700286</v>
+        <v>4.850527230841709</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.44782921542854</v>
+        <v>70.77139617160812</v>
       </c>
       <c r="D21" t="n">
-        <v>6.486021802716464</v>
+        <v>5.767615509198657</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.05463293743438</v>
+        <v>68.29032511168795</v>
       </c>
       <c r="D22" t="n">
-        <v>6.524737681153463</v>
+        <v>6.208324899608558</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.53450163653645</v>
+        <v>68.138763104275</v>
       </c>
       <c r="D23" t="n">
-        <v>6.44241181815633</v>
+        <v>6.096347150789981</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.50249134211977</v>
+        <v>66.36169902917337</v>
       </c>
       <c r="D24" t="n">
-        <v>5.954362568621104</v>
+        <v>6.414468005521014</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.54786192973138</v>
+        <v>66.19864971576771</v>
       </c>
       <c r="D25" t="n">
-        <v>6.093573156670841</v>
+        <v>6.235839842804189</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.70115380052522</v>
+        <v>65.90741425393804</v>
       </c>
       <c r="D26" t="n">
-        <v>5.613512381731462</v>
+        <v>6.570064555171912</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.6316850124669</v>
+        <v>63.72338204750275</v>
       </c>
       <c r="D27" t="n">
-        <v>6.74875676941627</v>
+        <v>7.623232525376609</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81568727640897</v>
+        <v>61.7127792863303</v>
       </c>
       <c r="D28" t="n">
-        <v>5.584877576058101</v>
+        <v>7.55744282285629</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.67974061841503</v>
+        <v>62.42599223928624</v>
       </c>
       <c r="D29" t="n">
-        <v>6.451505980065929</v>
+        <v>6.281106625177125</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.48519118254101</v>
+        <v>61.10321096524518</v>
       </c>
       <c r="D30" t="n">
-        <v>6.527875519125043</v>
+        <v>5.85121551749998</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.09327871778188</v>
+        <v>60.75614502068278</v>
       </c>
       <c r="D31" t="n">
-        <v>6.779648318211612</v>
+        <v>6.380754394970461</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.1846622775571</v>
+        <v>59.99950479163574</v>
       </c>
       <c r="D32" t="n">
-        <v>6.52380687613106</v>
+        <v>5.928891516567486</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.01702779974001</v>
+        <v>57.99524095173752</v>
       </c>
       <c r="D33" t="n">
-        <v>6.406468034677807</v>
+        <v>6.648695794762074</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>55.45299756227151</v>
+        <v>57.74329052103653</v>
       </c>
       <c r="D34" t="n">
-        <v>7.708751311954909</v>
+        <v>6.600209323869724</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.39622501900596</v>
+        <v>56.84764030245794</v>
       </c>
       <c r="D35" t="n">
-        <v>6.284037760272357</v>
+        <v>7.75718082205045</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.78855518653566</v>
+        <v>55.35502187027592</v>
       </c>
       <c r="D36" t="n">
-        <v>6.656078952668202</v>
+        <v>5.853629919382137</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.28018545472994</v>
+        <v>54.47594632896251</v>
       </c>
       <c r="D37" t="n">
-        <v>6.892343117382437</v>
+        <v>5.95392593670851</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.71172551323635</v>
+        <v>53.60823686085362</v>
       </c>
       <c r="D38" t="n">
-        <v>6.878323802872939</v>
+        <v>7.332226736601557</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.78396851066339</v>
+        <v>52.54174875597985</v>
       </c>
       <c r="D39" t="n">
-        <v>6.870244373317239</v>
+        <v>8.138837281658168</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.84096063007487</v>
+        <v>50.7098280741235</v>
       </c>
       <c r="D40" t="n">
-        <v>7.860425793587999</v>
+        <v>7.303648260474557</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.9639782219275</v>
+        <v>49.05607622209588</v>
       </c>
       <c r="D41" t="n">
-        <v>7.349995136978536</v>
+        <v>8.066968254308053</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.2792333204324</v>
+        <v>49.46087669581915</v>
       </c>
       <c r="D42" t="n">
-        <v>7.224794354401063</v>
+        <v>7.484132190168629</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.00609656334469</v>
+        <v>48.90625528028221</v>
       </c>
       <c r="D43" t="n">
-        <v>6.656086821112155</v>
+        <v>7.038679195688864</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.66972284317977</v>
+        <v>47.02499826659911</v>
       </c>
       <c r="D44" t="n">
-        <v>7.562258367496806</v>
+        <v>7.510992858466448</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>44.93931475362618</v>
+        <v>46.81190666710609</v>
       </c>
       <c r="D45" t="n">
-        <v>7.523801074179775</v>
+        <v>7.681126222302237</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.03781655147341</v>
+        <v>43.71086080817236</v>
       </c>
       <c r="D46" t="n">
-        <v>8.790052134677628</v>
+        <v>9.672533350132488</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.30669984108059</v>
+        <v>45.44114606202837</v>
       </c>
       <c r="D47" t="n">
-        <v>7.813311993501155</v>
+        <v>7.082942358146125</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.20149596603464</v>
+        <v>43.11050678551267</v>
       </c>
       <c r="D48" t="n">
-        <v>6.224155104328235</v>
+        <v>7.742850696677661</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.27952741380938</v>
+        <v>42.94057986337663</v>
       </c>
       <c r="D49" t="n">
-        <v>9.475689517604547</v>
+        <v>7.834576053178025</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.57920270228932</v>
+        <v>41.07854010768299</v>
       </c>
       <c r="D50" t="n">
-        <v>7.704768702794348</v>
+        <v>8.410844644848268</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.04907926572221</v>
+        <v>41.2415613303131</v>
       </c>
       <c r="D51" t="n">
-        <v>7.896979585451088</v>
+        <v>7.468078946333222</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.98249001491101</v>
+        <v>40.31110224681661</v>
       </c>
       <c r="D52" t="n">
-        <v>6.924003658081356</v>
+        <v>7.973343960927645</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.21123063828809</v>
+        <v>37.75393087391377</v>
       </c>
       <c r="D53" t="n">
-        <v>9.753657906809648</v>
+        <v>10.4085589766141</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.49970033078913</v>
+        <v>36.95058014224826</v>
       </c>
       <c r="D54" t="n">
-        <v>9.172744907530348</v>
+        <v>7.80466041631747</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.87849788566566</v>
+        <v>35.58184918568413</v>
       </c>
       <c r="D55" t="n">
-        <v>8.922346659930581</v>
+        <v>8.489711376681662</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.29230561294617</v>
+        <v>35.38384414514309</v>
       </c>
       <c r="D56" t="n">
-        <v>8.275511543101244</v>
+        <v>8.247390584624934</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.04524515689594</v>
+        <v>33.31273525789344</v>
       </c>
       <c r="D57" t="n">
-        <v>10.36337443103228</v>
+        <v>8.499697825160178</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.35376888280845</v>
+        <v>33.39822583981972</v>
       </c>
       <c r="D58" t="n">
-        <v>8.146168770246694</v>
+        <v>8.680369615720039</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.05041720397539</v>
+        <v>31.26480478163479</v>
       </c>
       <c r="D59" t="n">
-        <v>9.409680310268747</v>
+        <v>9.298414963827337</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.93170127496807</v>
+        <v>29.52150054670919</v>
       </c>
       <c r="D60" t="n">
-        <v>8.177101127939011</v>
+        <v>10.25423826185738</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.08997919777523</v>
+        <v>28.52542794637709</v>
       </c>
       <c r="D61" t="n">
-        <v>8.365389497780113</v>
+        <v>9.724039776026375</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>27.77732936159637</v>
+        <v>28.09673060488693</v>
       </c>
       <c r="D62" t="n">
-        <v>10.3293556761724</v>
+        <v>9.362960419252506</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.69133864926402</v>
+        <v>26.49142244206305</v>
       </c>
       <c r="D63" t="n">
-        <v>8.07322527992493</v>
+        <v>8.982527413106661</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.55888707058663</v>
+        <v>26.63247774557604</v>
       </c>
       <c r="D64" t="n">
-        <v>8.5588303971132</v>
+        <v>8.860680258653003</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.8266916445344</v>
+        <v>26.00317792444743</v>
       </c>
       <c r="D65" t="n">
-        <v>8.837624293654994</v>
+        <v>9.396943513006237</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.33195275156746</v>
+        <v>22.59988039381768</v>
       </c>
       <c r="D66" t="n">
-        <v>9.641728159644588</v>
+        <v>10.93203968559821</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.6268961815659</v>
+        <v>23.36125325244755</v>
       </c>
       <c r="D67" t="n">
-        <v>9.19739632344386</v>
+        <v>9.666263986060827</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.62036703809907</v>
+        <v>23.0440365228682</v>
       </c>
       <c r="D68" t="n">
-        <v>10.27658083626807</v>
+        <v>9.05134851115829</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.23749851306004</v>
+        <v>20.81414889645157</v>
       </c>
       <c r="D69" t="n">
-        <v>7.974174197906396</v>
+        <v>9.103527725522611</v>
       </c>
     </row>
   </sheetData>
